--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-virginia\InputData\elec\ARpUIiRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/jshepard/desktop/beyondcarbon/data/output/eps/mn/elec/arpuiirc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113BB3F-7BA7-1D44-937D-9F901678928C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="21080" windowHeight="12680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,17 @@
     <sheet name="Weighting" sheetId="8" r:id="rId5"/>
     <sheet name="ARpUIiRC" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -997,7 +1008,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -1260,16 +1271,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="7"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="8"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title" xfId="5"/>
+    <cellStyle name="Table title" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,6 +1371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1395,6 +1423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1570,21 +1615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1597,30 +1642,30 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>278</v>
       </c>
@@ -1630,200 +1675,200 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1831,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1841,14 +1886,14 @@
       <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="13" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="42.73046875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="13" customWidth="1"/>
     <col min="3" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>252</v>
       </c>
@@ -1949,14 +1994,14 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="16" t="s">
         <v>122</v>
       </c>
@@ -1967,7 +2012,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="16" t="s">
         <v>124</v>
       </c>
@@ -1980,7 +2025,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="16" t="s">
         <v>125</v>
       </c>
@@ -1991,7 +2036,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
         <v>127</v>
       </c>
@@ -2002,7 +2047,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>129</v>
       </c>
@@ -2010,12 +2055,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
         <v>132</v>
       </c>
@@ -2119,7 +2164,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>134</v>
       </c>
@@ -2223,18 +2268,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>137</v>
       </c>
@@ -2341,7 +2386,7 @@
         <v>-2.0031E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>139</v>
       </c>
@@ -2448,7 +2493,7 @@
         <v>-1.3575E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>141</v>
       </c>
@@ -2555,7 +2600,7 @@
         <v>1.6708000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>143</v>
       </c>
@@ -2662,7 +2707,7 @@
         <v>2.7220999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>145</v>
       </c>
@@ -2769,7 +2814,7 @@
         <v>-7.1539999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>147</v>
       </c>
@@ -2876,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>149</v>
       </c>
@@ -2983,7 +3028,7 @@
         <v>8.5441000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>151</v>
       </c>
@@ -3090,7 +3135,7 @@
         <v>1.1962E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>153</v>
       </c>
@@ -3197,7 +3242,7 @@
         <v>3.1888E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>155</v>
       </c>
@@ -3304,7 +3349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>158</v>
       </c>
@@ -3411,12 +3456,12 @@
         <v>1.5689000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>161</v>
       </c>
@@ -3523,7 +3568,7 @@
         <v>-9.4450000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>163</v>
       </c>
@@ -3630,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>165</v>
       </c>
@@ -3737,7 +3782,7 @@
         <v>-2.5900000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>166</v>
       </c>
@@ -3844,7 +3889,7 @@
         <v>-4.9399999999999997E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>167</v>
       </c>
@@ -3951,7 +3996,7 @@
         <v>-1.6899999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
         <v>168</v>
       </c>
@@ -4058,12 +4103,12 @@
         <v>-1.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>170</v>
       </c>
@@ -4170,7 +4215,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>171</v>
       </c>
@@ -4277,7 +4322,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>172</v>
       </c>
@@ -4384,7 +4429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>173</v>
       </c>
@@ -4491,7 +4536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>174</v>
       </c>
@@ -4598,7 +4643,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>176</v>
       </c>
@@ -4705,7 +4750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>177</v>
       </c>
@@ -4812,7 +4857,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>178</v>
       </c>
@@ -4919,7 +4964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>179</v>
       </c>
@@ -5026,7 +5071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>180</v>
       </c>
@@ -5133,7 +5178,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17" t="s">
         <v>182</v>
       </c>
@@ -5240,12 +5285,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>184</v>
       </c>
@@ -5352,7 +5397,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>185</v>
       </c>
@@ -5459,7 +5504,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>186</v>
       </c>
@@ -5566,7 +5611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
         <v>187</v>
       </c>
@@ -5673,7 +5718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>188</v>
       </c>
@@ -5780,7 +5825,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
         <v>189</v>
       </c>
@@ -5887,7 +5932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>190</v>
       </c>
@@ -5994,7 +6039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>191</v>
       </c>
@@ -6101,7 +6146,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>192</v>
       </c>
@@ -6208,7 +6253,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
         <v>193</v>
       </c>
@@ -6315,7 +6360,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>194</v>
       </c>
@@ -6422,7 +6467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>195</v>
       </c>
@@ -6529,12 +6574,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
         <v>198</v>
       </c>
@@ -6641,7 +6686,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
         <v>199</v>
       </c>
@@ -6748,7 +6793,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>200</v>
       </c>
@@ -6855,7 +6900,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>201</v>
       </c>
@@ -6962,7 +7007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>202</v>
       </c>
@@ -7069,7 +7114,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>203</v>
       </c>
@@ -7176,7 +7221,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>204</v>
       </c>
@@ -7283,7 +7328,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>205</v>
       </c>
@@ -7390,7 +7435,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>206</v>
       </c>
@@ -7497,7 +7542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
         <v>207</v>
       </c>
@@ -7604,7 +7649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
         <v>208</v>
       </c>
@@ -7711,12 +7756,12 @@
         <v>1.5321E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
         <v>211</v>
       </c>
@@ -7823,7 +7868,7 @@
         <v>-1.0508E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
         <v>212</v>
       </c>
@@ -7930,7 +7975,7 @@
         <v>-2.98E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
         <v>214</v>
       </c>
@@ -8037,7 +8082,7 @@
         <v>2.3052E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
         <v>216</v>
       </c>
@@ -8144,7 +8189,7 @@
         <v>-4.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
         <v>218</v>
       </c>
@@ -8251,7 +8296,7 @@
         <v>4.6114000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
         <v>219</v>
       </c>
@@ -8358,7 +8403,7 @@
         <v>4.542E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="17" t="s">
         <v>221</v>
       </c>
@@ -8465,7 +8510,7 @@
         <v>3.7383E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="17" t="s">
         <v>222</v>
       </c>
@@ -8572,8 +8617,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="43" t="s">
         <v>224</v>
       </c>
@@ -8611,122 +8656,122 @@
       <c r="AH87" s="43"/>
       <c r="AI87" s="43"/>
     </row>
-    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="26" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="26" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="26" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="26" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="26" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="26" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="26" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="26" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="26" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="26" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="26" t="s">
         <v>257</v>
       </c>
@@ -8741,7 +8786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8751,14 +8796,14 @@
       <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="13" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="42.73046875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="13" customWidth="1"/>
     <col min="3" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>248</v>
       </c>
@@ -8859,8 +8904,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="16" t="s">
         <v>122</v>
       </c>
@@ -8871,7 +8916,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="16" t="s">
         <v>124</v>
       </c>
@@ -8884,7 +8929,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="16" t="s">
         <v>125</v>
       </c>
@@ -8895,7 +8940,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
         <v>127</v>
       </c>
@@ -8906,7 +8951,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>129</v>
       </c>
@@ -8914,12 +8959,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
         <v>132</v>
       </c>
@@ -9023,7 +9068,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>134</v>
       </c>
@@ -9127,18 +9172,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>137</v>
       </c>
@@ -9245,7 +9290,7 @@
         <v>-9.3896999999999994E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>139</v>
       </c>
@@ -9352,7 +9397,7 @@
         <v>-2.0216000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>141</v>
       </c>
@@ -9459,7 +9504,7 @@
         <v>1.6057999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>143</v>
       </c>
@@ -9566,7 +9611,7 @@
         <v>2.4892000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>145</v>
       </c>
@@ -9673,7 +9718,7 @@
         <v>-1.3489999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>147</v>
       </c>
@@ -9780,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>149</v>
       </c>
@@ -9887,7 +9932,7 @@
         <v>0.16381100000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>151</v>
       </c>
@@ -9994,7 +10039,7 @@
         <v>7.2820000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>153</v>
       </c>
@@ -10101,7 +10146,7 @@
         <v>4.7758000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>155</v>
       </c>
@@ -10208,7 +10253,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>158</v>
       </c>
@@ -10315,12 +10360,12 @@
         <v>2.1288000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>161</v>
       </c>
@@ -10427,7 +10472,7 @@
         <v>-9.4450000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>163</v>
       </c>
@@ -10534,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>165</v>
       </c>
@@ -10641,7 +10686,7 @@
         <v>-2.5900000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>166</v>
       </c>
@@ -10748,7 +10793,7 @@
         <v>-4.9399999999999997E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>167</v>
       </c>
@@ -10855,7 +10900,7 @@
         <v>-1.6899999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
         <v>168</v>
       </c>
@@ -10962,12 +11007,12 @@
         <v>-1.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>170</v>
       </c>
@@ -11074,7 +11119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>171</v>
       </c>
@@ -11181,7 +11226,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>172</v>
       </c>
@@ -11288,7 +11333,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>173</v>
       </c>
@@ -11395,7 +11440,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>174</v>
       </c>
@@ -11502,7 +11547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>176</v>
       </c>
@@ -11609,7 +11654,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>177</v>
       </c>
@@ -11716,7 +11761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>178</v>
       </c>
@@ -11823,7 +11868,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>179</v>
       </c>
@@ -11930,7 +11975,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>180</v>
       </c>
@@ -12037,7 +12082,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17" t="s">
         <v>182</v>
       </c>
@@ -12144,12 +12189,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>184</v>
       </c>
@@ -12256,7 +12301,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>185</v>
       </c>
@@ -12363,7 +12408,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>186</v>
       </c>
@@ -12470,7 +12515,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
         <v>187</v>
       </c>
@@ -12577,7 +12622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>188</v>
       </c>
@@ -12684,7 +12729,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
         <v>189</v>
       </c>
@@ -12791,7 +12836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>190</v>
       </c>
@@ -12898,7 +12943,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>191</v>
       </c>
@@ -13005,7 +13050,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>192</v>
       </c>
@@ -13112,7 +13157,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
         <v>193</v>
       </c>
@@ -13219,7 +13264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>194</v>
       </c>
@@ -13326,7 +13371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>195</v>
       </c>
@@ -13433,12 +13478,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
         <v>198</v>
       </c>
@@ -13545,7 +13590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
         <v>199</v>
       </c>
@@ -13652,7 +13697,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>200</v>
       </c>
@@ -13759,7 +13804,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>201</v>
       </c>
@@ -13866,7 +13911,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>202</v>
       </c>
@@ -13973,7 +14018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>203</v>
       </c>
@@ -14080,7 +14125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>204</v>
       </c>
@@ -14187,7 +14232,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>205</v>
       </c>
@@ -14294,7 +14339,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>206</v>
       </c>
@@ -14401,7 +14446,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
         <v>207</v>
       </c>
@@ -14508,7 +14553,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
         <v>208</v>
       </c>
@@ -14615,12 +14660,12 @@
         <v>2.0830999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
         <v>211</v>
       </c>
@@ -14727,7 +14772,7 @@
         <v>-1.1379999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
         <v>212</v>
       </c>
@@ -14834,7 +14879,7 @@
         <v>-3.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
         <v>214</v>
       </c>
@@ -14941,7 +14986,7 @@
         <v>1.7583000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
         <v>216</v>
       </c>
@@ -15048,7 +15093,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
         <v>218</v>
       </c>
@@ -15155,7 +15200,7 @@
         <v>4.8812000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
         <v>219</v>
       </c>
@@ -15262,7 +15307,7 @@
         <v>4.542E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="17" t="s">
         <v>221</v>
       </c>
@@ -15369,7 +15414,7 @@
         <v>3.8552000000000003E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="17" t="s">
         <v>222</v>
       </c>
@@ -15476,8 +15521,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="43" t="s">
         <v>224</v>
       </c>
@@ -15515,122 +15560,122 @@
       <c r="AH87" s="43"/>
       <c r="AI87" s="43"/>
     </row>
-    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="26" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="26" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="26" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="26" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="26" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="26" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="26" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="26" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="26" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="26" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="26" t="s">
         <v>251</v>
       </c>
@@ -15645,21 +15690,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.265625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>304</v>
       </c>
@@ -15697,7 +15742,7 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2020</v>
       </c>
@@ -15795,7 +15840,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>305</v>
       </c>
@@ -15928,7 +15973,7 @@
         <v>4329.414625999998</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>306</v>
       </c>
@@ -16061,7 +16106,7 @@
         <v>1384.6121700000003</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>260</v>
       </c>
@@ -16190,20 +16235,20 @@
         <v>112.53930800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>282</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:34" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" ht="64" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>307</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>261</v>
       </c>
@@ -16212,7 +16257,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>285</v>
       </c>
@@ -16247,7 +16292,7 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2021</v>
       </c>
@@ -16339,7 +16384,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>280</v>
       </c>
@@ -16463,7 +16508,7 @@
         <v>144.06474583835555</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>281</v>
       </c>
@@ -16588,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>279</v>
       </c>
@@ -16596,24 +16641,24 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>314</v>
       </c>
       <c r="B21">
-        <v>3452.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>4020.2000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>315</v>
       </c>
@@ -16621,148 +16666,148 @@
         <v>233797.7999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B23" s="1">
         <f>B21/B22</f>
-        <v>1.4766606015967651E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1.719520029700879E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68"/>
     </row>
   </sheetData>
@@ -16771,24 +16816,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ119"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.59765625" customWidth="1"/>
-    <col min="2" max="2" width="39.73046875" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="27.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="36" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>121</v>
       </c>
@@ -16828,7 +16873,7 @@
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -16846,7 +16891,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>41</v>
       </c>
@@ -16896,7 +16941,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -16956,7 +17001,7 @@
         <v>44089.664454448415</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -17016,7 +17061,7 @@
         <v>43540.396738428462</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -17076,7 +17121,7 @@
         <v>42632.18015665796</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -17136,7 +17181,7 @@
         <v>41615.725567188492</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -17196,7 +17241,7 @@
         <v>40875.078718752076</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -17234,7 +17279,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -17272,7 +17317,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -17310,7 +17355,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -17348,7 +17393,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -17386,7 +17431,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -17424,7 +17469,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -17462,7 +17507,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -17500,7 +17545,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -17538,7 +17583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -17576,22 +17621,22 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>2019</v>
       </c>
@@ -17689,7 +17734,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -17790,7 +17835,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -17891,7 +17936,7 @@
         <v>1.80877E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>72</v>
       </c>
@@ -17992,7 +18037,7 @@
         <v>4.0960000000000003E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>73</v>
       </c>
@@ -18093,7 +18138,7 @@
         <v>6.5560000000000002E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>74</v>
       </c>
@@ -18194,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>75</v>
       </c>
@@ -18295,7 +18340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>76</v>
       </c>
@@ -18396,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>77</v>
       </c>
@@ -18497,7 +18542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
@@ -18598,7 +18643,7 @@
         <v>2.03E-6</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>79</v>
       </c>
@@ -18699,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -18800,7 +18845,7 @@
         <v>2.1129999999999999E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
@@ -18901,7 +18946,7 @@
         <v>4.0960000000000003E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>82</v>
       </c>
@@ -19002,7 +19047,7 @@
         <v>1.6589999999999999E-6</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>83</v>
       </c>
@@ -19103,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -19204,7 +19249,7 @@
         <v>1.5820000000000001E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
@@ -19305,7 +19350,7 @@
         <v>1.6140000000000001E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
@@ -19406,12 +19451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>2019</v>
       </c>
@@ -19509,7 +19554,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -19610,7 +19655,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>87</v>
       </c>
@@ -19711,7 +19756,7 @@
         <v>10375000</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>88</v>
       </c>
@@ -19812,7 +19857,7 @@
         <v>6516500</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>89</v>
       </c>
@@ -19913,7 +19958,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -20014,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -20115,7 +20160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -20216,7 +20261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -20317,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>94</v>
       </c>
@@ -20418,7 +20463,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -20519,7 +20564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>96</v>
       </c>
@@ -20620,7 +20665,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>97</v>
       </c>
@@ -20721,7 +20766,7 @@
         <v>8902000</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>98</v>
       </c>
@@ -20822,7 +20867,7 @@
         <v>10928800</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -20923,7 +20968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>100</v>
       </c>
@@ -21024,7 +21069,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>101</v>
       </c>
@@ -21125,7 +21170,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>102</v>
       </c>
@@ -21226,12 +21271,12 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -21332,7 +21377,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -21433,7 +21478,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -21534,7 +21579,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -21635,7 +21680,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -21736,7 +21781,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -21837,7 +21882,7 @@
         <v>0.33476600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -21938,7 +21983,7 @@
         <v>0.217416</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -22039,7 +22084,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -22140,7 +22185,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -22241,7 +22286,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -22342,7 +22387,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -22443,7 +22488,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -22544,7 +22589,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -22645,7 +22690,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -22746,7 +22791,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -22847,7 +22892,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -22948,12 +22993,12 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -22962,7 +23007,7 @@
         <v>37.91957141830045</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -22971,7 +23016,7 @@
         <v>22.066844467696896</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -22980,7 +23025,7 @@
         <v>23.690599400839194</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -22989,7 +23034,7 @@
         <v>11.698640141047356</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -22998,7 +23043,7 @@
         <v>8.196236123322107</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -23007,7 +23052,7 @@
         <v>7.6743450535082207</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>120</v>
       </c>
@@ -23016,7 +23061,7 @@
         <v>15.860491837526487</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -23025,7 +23070,7 @@
         <v>55.261317485898473</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -23034,7 +23079,7 @@
         <v>16.629675121802013</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -23043,7 +23088,7 @@
         <v>213.61222031963467</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -23052,7 +23097,7 @@
         <v>36.38234998570578</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>62</v>
       </c>
@@ -23061,7 +23106,7 @@
         <v>40.844083378801315</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -23070,7 +23115,7 @@
         <v>26.548972845107564</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -23079,7 +23124,7 @@
         <v>105.26222031963468</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>67</v>
       </c>
@@ -23088,7 +23133,7 @@
         <v>128.31222031963472</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>68</v>
       </c>
@@ -23097,12 +23142,12 @@
         <v>8.4508264749040727</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -23111,7 +23156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -23120,7 +23165,7 @@
         <v>0.58193812963421754</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -23129,7 +23174,7 @@
         <v>0.62475915509440116</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -23138,7 +23183,7 @@
         <v>0.30851192942021094</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -23147,7 +23192,7 @@
         <v>0.21614791034706957</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -23156,7 +23201,7 @@
         <v>0.20238480463955053</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -23165,7 +23210,7 @@
         <v>0.41826664290493587</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -23174,7 +23219,7 @@
         <v>1.4573296959582376</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -23183,7 +23228,7 @@
         <v>0.43855124147780655</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -23192,7 +23237,7 @@
         <v>5.6332973272093154</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -23201,7 +23246,7 @@
         <v>0.95946100192860329</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -23210,7 +23255,7 @@
         <v>1.0771240773857866</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -23219,7 +23264,7 @@
         <v>0.70013905358367801</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>66</v>
       </c>
@@ -23228,7 +23273,7 @@
         <v>2.775933808915199</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>67</v>
       </c>
@@ -23237,7 +23282,7 @@
         <v>3.3837993289583879</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>68</v>
       </c>
@@ -23256,108 +23301,108 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="5">
         <f>Calculations!$B$17*Weighting!B104*Calculations!$B$23</f>
-        <v>59.066424063870599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68.780801188035156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="5">
         <f>Calculations!$B$17*Weighting!B105*Calculations!$B$23</f>
-        <v>34.373004343910395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>40.026170798108147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5">
         <f>Calculations!$B$17*Weighting!B106*Calculations!$B$23</f>
-        <v>36.902289192591404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>42.971435236952836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5">
         <f>Calculations!$B$17*Weighting!B107*Calculations!$B$23</f>
-        <v>18.222696451897097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21.219697681588663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="5">
         <f>Calculations!$B$17*Weighting!B108*Calculations!$B$23</f>
-        <v>12.767084133079496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14.86682644879104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="5">
         <f>Calculations!$B$17*Weighting!B109*Calculations!$B$23</f>
-        <v>11.954146694923299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13.920189011392262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="5">
         <f>Calculations!$B$17*Weighting!B110*Calculations!$B$23</f>
-        <v>24.705514901594476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>28.768714809231291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5">
         <f>Calculations!$B$17*Weighting!B111*Calculations!$B$23</f>
-        <v>86.079253822340874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>100.23630408312327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="5">
         <f>Calculations!$B$17*Weighting!B112*Calculations!$B$23</f>
-        <v>25.903653602865042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30.163905750851011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
@@ -23365,7 +23410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -23373,25 +23418,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="5">
         <f>Calculations!$B$17*Weighting!B115*Calculations!$B$23</f>
-        <v>63.621867524274251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74.085457021517598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="5">
         <f>Calculations!$B$17*Weighting!B116*Calculations!$B$23</f>
-        <v>41.354710242650548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48.156125048518049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -23399,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -23407,13 +23452,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="5">
         <f>Calculations!$B$17*Weighting!B119*Calculations!$B$23</f>
-        <v>13.163653532644304</v>
+        <v>15.328617753428521</v>
       </c>
     </row>
   </sheetData>
